--- a/agile/sprint3.xlsx
+++ b/agile/sprint3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="sprint3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -103,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,17 +641,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -670,14 +660,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -719,23 +706,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="45693568"/>
-        <c:axId val="45692032"/>
+        <c:dLbls/>
+        <c:axId val="104200832"/>
+        <c:axId val="104465152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45693568"/>
+        <c:axId val="104200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -754,22 +733,19 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45692032"/>
+        <c:crossAx val="104465152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45692032"/>
+        <c:axId val="104465152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -793,13 +769,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45693568"/>
+        <c:crossAx val="104200832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -807,15 +781,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -931,7 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -966,7 +937,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1142,19 +1112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1188,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>17</v>
       </c>
@@ -1208,7 +1178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1228,7 +1198,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>24</v>
       </c>
@@ -1248,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>31</v>
       </c>
@@ -1262,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1275,8 +1245,14 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>33</v>
       </c>
@@ -1289,8 +1265,14 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1304,7 +1286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>46</v>
       </c>
@@ -1318,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>47</v>
       </c>
@@ -1332,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>48</v>
       </c>
@@ -1346,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>49</v>
       </c>
@@ -1360,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1374,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>51</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>52</v>
       </c>
@@ -1402,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18">
         <v>1335</v>
       </c>

--- a/agile/sprint3.xlsx
+++ b/agile/sprint3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -103,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,7 +641,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -660,11 +670,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -706,15 +719,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="104200832"/>
-        <c:axId val="104465152"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92312704"/>
+        <c:axId val="92314624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104200832"/>
+        <c:axId val="92312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -733,19 +754,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104465152"/>
+        <c:crossAx val="92314624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104465152"/>
+        <c:axId val="92314624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -769,11 +793,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104200832"/>
+        <c:crossAx val="92312704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -781,9 +807,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -903,6 +931,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -937,6 +966,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1112,19 +1142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1154,11 +1184,11 @@
       <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -1168,7 +1198,7 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
@@ -1178,7 +1208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1188,7 +1218,7 @@
       <c r="C4">
         <v>480</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="I4">
@@ -1198,7 +1228,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
@@ -1208,7 +1238,7 @@
       <c r="C5">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="I5">
@@ -1218,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -1228,11 +1258,11 @@
       <c r="C6">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1242,9 +1272,6 @@
       <c r="C7">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>33</v>
       </c>
@@ -1262,9 +1289,6 @@
       <c r="C8">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1282,11 +1306,11 @@
       <c r="C9">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46</v>
       </c>
@@ -1296,11 +1320,11 @@
       <c r="C10">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>47</v>
       </c>
@@ -1310,11 +1334,11 @@
       <c r="C11">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>48</v>
       </c>
@@ -1324,11 +1348,11 @@
       <c r="C12">
         <v>120</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
@@ -1338,11 +1362,11 @@
       <c r="C13">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1352,11 +1376,11 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>51</v>
       </c>
@@ -1366,11 +1390,11 @@
       <c r="C15">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>52</v>
       </c>
@@ -1380,11 +1404,11 @@
       <c r="C16">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1335</v>
       </c>

--- a/agile/sprint3.xlsx
+++ b/agile/sprint3.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="sprint3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>remaining</t>
+  </si>
+  <si>
+    <t>progress</t>
   </si>
 </sst>
 </file>
@@ -719,6 +722,65 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sprint3!$I$7:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sprint3!$L$7:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -727,11 +789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92312704"/>
-        <c:axId val="92314624"/>
+        <c:axId val="98734848"/>
+        <c:axId val="98736768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92312704"/>
+        <c:axId val="98734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +822,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92314624"/>
+        <c:crossAx val="98736768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92314624"/>
+        <c:axId val="98736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +861,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92312704"/>
+        <c:crossAx val="98734848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1145,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,6 +1246,9 @@
       <c r="C2">
         <v>30</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -1198,11 +1263,17 @@
       <c r="C3">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
@@ -1218,6 +1289,9 @@
       <c r="C4">
         <v>480</v>
       </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -1258,6 +1332,9 @@
       <c r="C6">
         <v>90</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -1272,11 +1349,24 @@
       <c r="C7">
         <v>90</v>
       </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7">
         <v>60</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUMIF(D2:D16,I7,C2:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1335</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,11 +1379,25 @@
       <c r="C8">
         <v>45</v>
       </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8">
         <v>60</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>SUMIF(D2:D17,I8,C2:C17)</f>
+        <v>135</v>
+      </c>
+      <c r="L8">
+        <f>L7-J8</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1306,8 +1410,22 @@
       <c r="C9">
         <v>60</v>
       </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
       <c r="E9" t="s">
         <v>16</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>SUMIF(D2:D18,I9,C2:C18)</f>
+        <v>270</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L10" si="0">L8-J9</f>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1320,8 +1438,22 @@
       <c r="C10">
         <v>45</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10" t="s">
         <v>18</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>SUMIF(D2:D19,I10,C2:C19)</f>
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1334,8 +1466,22 @@
       <c r="C11">
         <v>60</v>
       </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
       <c r="E11" t="s">
         <v>16</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f>SUMIF($D$2:D20,7,$C$2:C20)</f>
+        <v>660</v>
+      </c>
+      <c r="L11">
+        <f>L10-J11</f>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1348,6 +1494,9 @@
       <c r="C12">
         <v>120</v>
       </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
@@ -1362,6 +1511,9 @@
       <c r="C13">
         <v>30</v>
       </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -1376,6 +1528,9 @@
       <c r="C14">
         <v>60</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
@@ -1390,6 +1545,9 @@
       <c r="C15">
         <v>60</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
@@ -1403,6 +1561,9 @@
       </c>
       <c r="C16">
         <v>30</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
